--- a/biology/Zoologie/Angustinaripterus/Angustinaripterus.xlsx
+++ b/biology/Zoologie/Angustinaripterus/Angustinaripterus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Angustinaripterus longicephalus
-Angustinaripterus est un genre éteint de ptérosaures de la famille des Rhamphorhynchidae[1] qui a été découvert dans le Sichuan en Chine dans la sous-formation Xiashaximiao, partie supérieure de la formation géologique Dashanpu[1] d'âge Bathonien (étage du Jurassique moyen) datant d'il y a environ 167 Ma (millions d'années).
-Une seule espèce est rattachée au genre, Angustinaripterus longicephalus[1].
+Angustinaripterus est un genre éteint de ptérosaures de la famille des Rhamphorhynchidae qui a été découvert dans le Sichuan en Chine dans la sous-formation Xiashaximiao, partie supérieure de la formation géologique Dashanpu d'âge Bathonien (étage du Jurassique moyen) datant d'il y a environ 167 Ma (millions d'années).
+Une seule espèce est rattachée au genre, Angustinaripterus longicephalus.
 </t>
         </is>
       </c>
@@ -513,9 +525,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le seul reste fossile découvert est un crâne. En 1993, Peter Wellnhofer, en estimant la longueur du crâne à 16,5 centimètres, a évalué son envergure à 1,6 mètre[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le seul reste fossile découvert est un crâne. En 1993, Peter Wellnhofer, en estimant la longueur du crâne à 16,5 centimètres, a évalué son envergure à 1,6 mètre.
 </t>
         </is>
       </c>
@@ -544,7 +558,9 @@
           <t>Article lié</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Liste des espèces de ptérosaures</t>
         </is>
